--- a/Grafici per confronto.xlsx
+++ b/Grafici per confronto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>GT01R</t>
   </si>
@@ -85,9 +85,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -118,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -130,6 +131,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +465,9 @@
         <v>9.3314999999999995E-2</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>0.94505899999999998</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:6">
@@ -472,7 +478,9 @@
         <v>0.29393000000000002</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>1.574614</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6">
@@ -483,7 +491,9 @@
         <v>0.71318000000000004</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>11.586387999999999</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:6">
@@ -494,7 +504,9 @@
         <v>26.277999999999999</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>32.805546999999997</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:6">
@@ -505,7 +517,9 @@
         <v>1.1106</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>4.6433</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:6">
@@ -516,7 +530,9 @@
         <v>1.6984999999999999</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>1.9132709999999999</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:6">
@@ -527,7 +543,9 @@
         <v>20</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6">
@@ -538,7 +556,9 @@
         <v>5.2464000000000004</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>6.4567160000000001</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:6">
@@ -578,7 +598,9 @@
         <v>3.8098999999999998E-15</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="2">
+        <v>8.2008600000000001E-13</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:6">
@@ -589,7 +611,9 @@
         <v>7.1178999999999998E-12</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>5.3789999999999996E-12</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6">
@@ -600,7 +624,9 @@
         <v>9.3889999999999993E-16</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>7.8831000000000006E-15</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6">
@@ -611,7 +637,9 @@
         <v>4.5005999999999999E-11</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>3.6637000000000002E-11</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6">
@@ -622,7 +650,9 @@
         <v>3.3311000000000002E-14</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>3.7516000000000001E-14</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6">
@@ -633,7 +663,9 @@
         <v>1.1209999999999999E-5</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="2">
+        <v>5.959E-6</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6">
@@ -644,7 +676,9 @@
         <v>20</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6">
@@ -655,7 +689,9 @@
         <v>3.575E-12</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>4.8900000000000004E-12</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6">
@@ -695,7 +731,9 @@
         <v>6.5535999999999997E-2</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="5">
+        <v>1.048576</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6">
@@ -706,7 +744,9 @@
         <v>6.5535999999999997E-2</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>1.306624</v>
+      </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6">
@@ -717,7 +757,9 @@
         <v>6.5535999999999997E-2</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>2.830336</v>
+      </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6">
@@ -728,7 +770,9 @@
         <v>1.7654000000000001</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>44.142592</v>
+      </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6">
@@ -739,7 +783,9 @@
         <v>3.8338999999999999</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>3.1948799999999999</v>
+      </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6">
@@ -750,7 +796,9 @@
         <v>12.324999999999999</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>55.373823999999999</v>
+      </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6">
@@ -761,7 +809,9 @@
         <v>20</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6">
@@ -772,7 +822,9 @@
         <v>38.055999999999997</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1">
+        <v>170.14784</v>
+      </c>
       <c r="F33" s="1"/>
     </row>
   </sheetData>
